--- a/data/trans_camb/P5_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>-2,01</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,59</t>
+          <t>-7,86; 0,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 1,0</t>
+          <t>-4,16; 1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,16</t>
+          <t>-4,72; 0,01</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,45%</t>
+          <t>-2,91%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>-1,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-2,14%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,62</t>
+          <t>-8,25; 0,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,06</t>
+          <t>-4,36; 1,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,19</t>
+          <t>-4,98; 0,0</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,77</t>
+          <t>-1,87</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 0,53</t>
+          <t>-5,26; 0,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 0,83</t>
+          <t>-3,83; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,06</t>
+          <t>-3,87; -0,08</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,14%</t>
+          <t>-2,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,52%</t>
+          <t>-1,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 0,53</t>
+          <t>-5,4; 0,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,87</t>
+          <t>-3,99; 0,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,06</t>
+          <t>-3,97; -0,09</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-2,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>-2,95</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 1,18</t>
+          <t>-8,18; 1,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 2,56</t>
+          <t>-9,44; 2,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,11</t>
+          <t>-6,93; 0,8</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,28%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,0%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,63%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,35; 1,22</t>
+          <t>-8,44; 1,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 2,77</t>
+          <t>-9,81; 2,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,12</t>
+          <t>-7,13; 0,82</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,33</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,08</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -0,22</t>
+          <t>-5,42; -0,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; -0,04</t>
+          <t>-3,46; 0,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,74</t>
+          <t>-3,74; -0,76</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>-2,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>-1,68%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,09%</t>
+          <t>-2,18%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,23</t>
+          <t>-5,65; -0,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,84; -0,04</t>
+          <t>-3,6; 0,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,71; -0,77</t>
+          <t>-3,9; -0,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P5_6-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P5_6-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.240832348717514</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.480239311333031</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.843468038810558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 0,62</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,16; 1,21</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 0,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-6.490687699066779</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.430587811654528</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-4.2952959908782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,91%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.9666143044485197</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.139604915091862</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1393293292758235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 0,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,36; 1,3</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,98; 0,0</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.02373981400013698</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.01572001154665083</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01955477833218523</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.06840348898414565</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.04659562524390363</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04536564140892437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,26; 0,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 0,97</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,87; -0,08</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.01047402571459225</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.01223158145961905</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.001437038755908868</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-2,36%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,49%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,92%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.029033671265335</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.304024200938669</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.664251859319599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,4; 0,15</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,99; 0,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; -0,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.840497626414876</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.818774946147027</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.653905365460409</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-2,74</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.332469545534958</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.054018612556241</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.07498069957318285</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 1,53</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 2,76</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 0,8</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.0209376744004733</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.01345381312096421</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.01717189339510881</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,82%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-3,36%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.0496400301946565</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.03929208168770799</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03741795679585237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 1,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,81; 2,95</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,13; 0,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.003376522829273047</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.01094328222083491</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.0008718994597897085</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,08</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-3.149895939510372</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-4.657618493909766</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-3.893895859012109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,42; -0,65</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 0,04</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; -0,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.101752213701172</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-12.05889004103759</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-8.598315810724264</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-2,69%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-1,68%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,18%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>1.274076286961181</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>1.681587068484774</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-0.114663203552173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-5,65; -0,68</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 0,05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; -0,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03236869805567898</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.04957581933703808</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.04070846899807638</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.09452079193777842</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.1264596785086341</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.08866134858518912</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.01281713150982005</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.01597408302904716</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.0009797637957801818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.276567008492403</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.788046475635097</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-2.026661781921035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.658895355624021</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.810040545612877</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-3.588273021810884</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-0.3589239824435032</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-0.09666568146879906</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-0.6911491037582462</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.02377337228749851</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.01877870018505381</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.02122543834538685</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.04817932831998218</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.03991045120049726</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.0374776819529852</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>-0.003744796452235217</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>-0.001067225968313774</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>-0.007434941451347881</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
